--- a/data/cases.275.xlsx
+++ b/data/cases.275.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FEF5D3-5D69-422C-9B19-9D41DCA6027F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD57AC8A-A858-4B3A-9256-EB0A2C8F299C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19395" yWindow="5580" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7695" yWindow="3255" windowWidth="25725" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
   <si>
     <t>Evolution</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>YEYA + YEDA: S = 0.006</t>
+  </si>
+  <si>
+    <t>e0.rel_0c</t>
+  </si>
+  <si>
+    <t>e0_0c</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H9" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +431,7 @@
     <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,19 +451,25 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -474,22 +486,29 @@
         <v>1.6443075</v>
       </c>
       <c r="F2">
-        <v>8.9189275359999982</v>
-      </c>
-      <c r="G2" s="1">
+        <v>10.292427523880088</v>
+      </c>
+      <c r="G2">
+        <v>8.918927536</v>
+      </c>
+      <c r="H2" s="1">
         <v>1.3667798499930193</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>616266621.99772167</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.91814013466530631</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f>F2/14.66143438</f>
+        <v>0.7020068607966643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -506,22 +525,29 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>10.905358253999998</v>
-      </c>
-      <c r="G3" s="1">
+        <v>12.678902003878427</v>
+      </c>
+      <c r="G3">
+        <v>10.905358250000001</v>
+      </c>
+      <c r="H3" s="1">
         <v>1.3025902012680448</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>707933523.68102527</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.1230362621488863</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="0">F3/14.66143438</f>
+        <v>0.86477909836530109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -538,22 +564,29 @@
         <v>0.60776125000000003</v>
       </c>
       <c r="F4">
+        <v>22.314823131227502</v>
+      </c>
+      <c r="G4">
         <v>9.4784313719999993</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1.1282155505965332</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>636079709.95977974</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.97423101114992616</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1.5220081850700546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -570,46 +603,57 @@
         <v>0.76058958333333326</v>
       </c>
       <c r="F5">
-        <v>10.863142199999999</v>
-      </c>
-      <c r="G5" s="1">
+        <v>16.372111595082533</v>
+      </c>
+      <c r="G5">
+        <v>10.8631422</v>
+      </c>
+      <c r="H5" s="1">
         <v>1.2619391950116217</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>827165814.29342651</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1.1179413373225018</v>
       </c>
-      <c r="M5">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1.1166787076042237</v>
+      </c>
+      <c r="N5">
         <f>AVERAGE(C2:C6)</f>
         <v>2.3672200000000001</v>
       </c>
-      <c r="N5">
-        <f t="shared" ref="N5:S5" si="0">AVERAGE(D2:D6)</f>
+      <c r="O5">
+        <f>AVERAGE(D2:D6)</f>
         <v>0.2787</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
+      <c r="P5">
+        <f>AVERAGE(E2:E6)</f>
         <v>0.71050150000000001</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>9.9480588651999984</v>
-      </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F2:F6)</f>
+        <v>15.392509678737763</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:T5" si="1">AVERAGE(H2:H6)</f>
         <v>1.3233058731462588</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
+      <c r="T5">
+        <f t="shared" si="1"/>
         <v>702167439.02504456</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V5">
+        <f>R20/R5</f>
+        <v>1.1878435400718208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -626,46 +670,53 @@
         <v>0.53984916666666671</v>
       </c>
       <c r="F6">
+        <v>15.304284139620282</v>
+      </c>
+      <c r="G6">
         <v>9.5744349639999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>1.5570045688620748</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>723391525.19326925</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.98563948295747539</v>
       </c>
-      <c r="M6">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1.0438463074593307</v>
+      </c>
+      <c r="N6">
         <f>_xlfn.STDEV.S(C2:C6)/SQRT(5)</f>
         <v>9.148603629789627E-2</v>
       </c>
-      <c r="N6">
-        <f t="shared" ref="N6:S6" si="1">_xlfn.STDEV.S(D2:D6)/SQRT(5)</f>
+      <c r="O6">
+        <f>_xlfn.STDEV.S(D2:D6)/SQRT(5)</f>
         <v>1.1719214990774754E-2</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
+      <c r="P6">
+        <f>_xlfn.STDEV.S(E2:E6)/SQRT(5)</f>
         <v>0.26636371947699922</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="1"/>
-        <v>0.39831242285947605</v>
-      </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f>_xlfn.STDEV.S(F2:F6)/SQRT(5)</f>
+        <v>2.0280573437915006</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6:T6" si="2">_xlfn.STDEV.S(H2:H6)/SQRT(5)</f>
         <v>7.0271014380520927E-2</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="1"/>
+      <c r="T6">
+        <f t="shared" si="2"/>
         <v>37319459.859861419</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -682,22 +733,29 @@
         <v>0.93636055555555553</v>
       </c>
       <c r="F7">
-        <v>8.397498633999998</v>
-      </c>
-      <c r="G7" s="1">
+        <v>12.505830061834848</v>
+      </c>
+      <c r="G7">
+        <v>8.3974986339999997</v>
+      </c>
+      <c r="H7" s="1">
         <v>1.1842160392771668</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>683584641.26196122</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.86469865421609482</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.8529745274373931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -714,22 +772,29 @@
         <v>1.4674941666666668</v>
       </c>
       <c r="F8">
+        <v>15.634130512958452</v>
+      </c>
+      <c r="G8">
         <v>9.3617989399999999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1.0973797957367273</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>12</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>638549208.24348807</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.96295870311459264</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1.0663438588440795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -746,22 +811,29 @@
         <v>2.1212629166666668</v>
       </c>
       <c r="F9">
-        <v>2.5009458039999997</v>
-      </c>
-      <c r="G9" s="1">
+        <v>2.5065493421052594</v>
+      </c>
+      <c r="G9">
+        <v>2.5009458040000001</v>
+      </c>
+      <c r="H9" s="1">
         <v>1.0701632558581826</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>976894495.3849268</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.25719848123401312</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.17096208168584795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -778,46 +850,53 @@
         <v>1.5128183333333334</v>
       </c>
       <c r="F10">
-        <v>10.555555553999998</v>
-      </c>
-      <c r="G10" s="1">
+        <v>16.328722956364377</v>
+      </c>
+      <c r="G10">
+        <v>10.555555549999999</v>
+      </c>
+      <c r="H10" s="1">
         <v>1.1631353707945855</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>809452095.27744484</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1.0874290922821315</v>
       </c>
-      <c r="M10">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1.113719335581433</v>
+      </c>
+      <c r="N10">
         <f>AVERAGE(C7:C11)</f>
         <v>1.9237649999999999</v>
       </c>
-      <c r="N10">
-        <f t="shared" ref="N10" si="2">AVERAGE(D7:D11)</f>
+      <c r="O10">
+        <f t="shared" ref="O10" si="3">AVERAGE(D7:D11)</f>
         <v>0.27989999999999993</v>
       </c>
-      <c r="O10">
-        <f t="shared" ref="O10" si="3">AVERAGE(E7:E11)</f>
+      <c r="P10">
+        <f t="shared" ref="P10" si="4">AVERAGE(E7:E11)</f>
         <v>1.573616027777778</v>
       </c>
-      <c r="P10">
-        <f t="shared" ref="P10" si="4">AVERAGE(F7:F11)</f>
-        <v>8.2168869963999995</v>
-      </c>
       <c r="Q10">
-        <f t="shared" ref="Q10" si="5">AVERAGE(G7:G11)</f>
+        <f>AVERAGE(F7:F11)</f>
+        <v>12.781785857733814</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ref="R10" si="5">AVERAGE(H7:H11)</f>
         <v>1.1402065683461999</v>
       </c>
-      <c r="S10">
-        <f t="shared" ref="S10" si="6">AVERAGE(I7:I11)</f>
+      <c r="T10">
+        <f t="shared" ref="T10" si="6">AVERAGE(J7:J11)</f>
         <v>785580881.19464636</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -834,46 +913,53 @@
         <v>1.8301441666666667</v>
       </c>
       <c r="F11">
-        <v>10.268636050000001</v>
-      </c>
-      <c r="G11" s="1">
+        <v>16.933696415406132</v>
+      </c>
+      <c r="G11">
+        <v>10.26863605</v>
+      </c>
+      <c r="H11" s="1">
         <v>1.1861383800643372</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>12</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>819423965.80541098</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1.058683105481889</v>
       </c>
-      <c r="M11">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1.1549822463827808</v>
+      </c>
+      <c r="N11">
         <f>_xlfn.STDEV.S(C7:C11)/SQRT(5)</f>
         <v>0.13904823322322449</v>
       </c>
-      <c r="N11">
-        <f t="shared" ref="N11" si="7">_xlfn.STDEV.S(D7:D11)/SQRT(5)</f>
+      <c r="O11">
+        <f t="shared" ref="O11" si="7">_xlfn.STDEV.S(D7:D11)/SQRT(5)</f>
         <v>1.4770240350109516E-2</v>
       </c>
-      <c r="O11">
-        <f t="shared" ref="O11" si="8">_xlfn.STDEV.S(E7:E11)/SQRT(5)</f>
+      <c r="P11">
+        <f t="shared" ref="P11" si="8">_xlfn.STDEV.S(E7:E11)/SQRT(5)</f>
         <v>0.19834018086158031</v>
       </c>
-      <c r="P11">
-        <f t="shared" ref="P11" si="9">_xlfn.STDEV.S(F7:F11)/SQRT(5)</f>
-        <v>1.4780810606740231</v>
-      </c>
       <c r="Q11">
-        <f t="shared" ref="Q11" si="10">_xlfn.STDEV.S(G7:G11)/SQRT(5)</f>
+        <f>_xlfn.STDEV.S(F7:F11)/SQRT(5)</f>
+        <v>2.6796607168272049</v>
+      </c>
+      <c r="R11">
+        <f t="shared" ref="R11" si="9">_xlfn.STDEV.S(H7:H11)/SQRT(5)</f>
         <v>2.3782864543078746E-2</v>
       </c>
-      <c r="S11">
-        <f t="shared" ref="S11" si="11">_xlfn.STDEV.S(I7:I11)/SQRT(5)</f>
+      <c r="T11">
+        <f t="shared" ref="T11" si="10">_xlfn.STDEV.S(J7:J11)/SQRT(5)</f>
         <v>59303302.616097383</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -890,22 +976,29 @@
         <v>4.9141666666666665E-3</v>
       </c>
       <c r="F12">
-        <v>4.3911328197482762</v>
-      </c>
-      <c r="G12" s="1">
+        <v>4.5725679245282986</v>
+      </c>
+      <c r="G12">
+        <v>4.3911328200000002</v>
+      </c>
+      <c r="H12" s="1">
         <v>1.4368642330457535</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>12</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>17916296.296296299</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.69993917666990302</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f>F12/8.384658</f>
+        <v>0.54534936601210193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -922,22 +1015,29 @@
         <v>0.12962208333333333</v>
       </c>
       <c r="F13">
-        <v>4.2373412918579145</v>
-      </c>
-      <c r="G13" s="1">
+        <v>3.5712841253791696</v>
+      </c>
+      <c r="G13">
+        <v>4.237341292</v>
+      </c>
+      <c r="H13" s="1">
         <v>1.3796440937257148</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>12</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>10444814.814814815</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.67542506611367603</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" ref="L13:L21" si="11">F13/8.384658</f>
+        <v>0.42593080425929952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -954,22 +1054,29 @@
         <v>0.18898416666666668</v>
       </c>
       <c r="F14">
-        <v>4.5516774891774858</v>
-      </c>
-      <c r="G14" s="1">
+        <v>8.1142602941176385</v>
+      </c>
+      <c r="G14">
+        <v>4.5516774890000002</v>
+      </c>
+      <c r="H14" s="1">
         <v>1.3979507243464304</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>12</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>21494814.814814817</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.72552972661493165</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="11"/>
+        <v>0.96775089623424571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -986,46 +1093,57 @@
         <v>0.25435541666666667</v>
       </c>
       <c r="F15">
-        <v>5.5712250861884174</v>
-      </c>
-      <c r="G15" s="1">
+        <v>8.0008140670791104</v>
+      </c>
+      <c r="G15">
+        <v>5.5712250860000001</v>
+      </c>
+      <c r="H15" s="1">
         <v>1.3467560534615706</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>12</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>24449259.259259261</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.88804389663006644</v>
       </c>
-      <c r="M15">
+      <c r="L15">
+        <f t="shared" si="11"/>
+        <v>0.95422068104377189</v>
+      </c>
+      <c r="N15">
         <f>AVERAGE(C12:C16)</f>
         <v>2.4521499999999996</v>
       </c>
-      <c r="N15">
-        <f t="shared" ref="N15" si="12">AVERAGE(D12:D16)</f>
+      <c r="O15">
+        <f t="shared" ref="O15" si="12">AVERAGE(D12:D16)</f>
         <v>0.30569999999999997</v>
       </c>
-      <c r="O15">
-        <f t="shared" ref="O15" si="13">AVERAGE(E12:E16)</f>
+      <c r="P15">
+        <f t="shared" ref="P15" si="13">AVERAGE(E12:E16)</f>
         <v>0.24551350000000002</v>
       </c>
-      <c r="P15">
-        <f t="shared" ref="P15" si="14">AVERAGE(F12:F16)</f>
-        <v>4.5663659415053344</v>
-      </c>
       <c r="Q15">
-        <f t="shared" ref="Q15" si="15">AVERAGE(G12:G16)</f>
+        <f>AVERAGE(F12:F16)</f>
+        <v>5.5624326668362283</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ref="R15" si="14">AVERAGE(H12:H16)</f>
         <v>1.4168888704765943</v>
       </c>
-      <c r="S15">
-        <f t="shared" ref="S15" si="16">AVERAGE(I12:I16)</f>
+      <c r="T15">
+        <f t="shared" ref="T15" si="15">AVERAGE(J12:J16)</f>
         <v>17686222.222222224</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <f>R15/R10</f>
+        <v>1.2426598037684569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1042,46 +1160,53 @@
         <v>0.64969166666666667</v>
       </c>
       <c r="F16">
-        <v>4.0804530205545788</v>
-      </c>
-      <c r="G16" s="1">
+        <v>3.5532369230769221</v>
+      </c>
+      <c r="G16">
+        <v>4.0804530210000003</v>
+      </c>
+      <c r="H16" s="1">
         <v>1.5232292478035021</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>12</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>14125925.925925927</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.65041733987242867</v>
       </c>
-      <c r="M16">
+      <c r="L16">
+        <f t="shared" si="11"/>
+        <v>0.42377839657585581</v>
+      </c>
+      <c r="N16">
         <f>_xlfn.STDEV.S(C12:C16)/SQRT(5)</f>
         <v>7.7969118486103259E-2</v>
       </c>
-      <c r="N16">
-        <f t="shared" ref="N16" si="17">_xlfn.STDEV.S(D12:D16)/SQRT(5)</f>
+      <c r="O16">
+        <f t="shared" ref="O16" si="16">_xlfn.STDEV.S(D12:D16)/SQRT(5)</f>
         <v>1.7164352594840379E-2</v>
       </c>
-      <c r="O16">
-        <f t="shared" ref="O16" si="18">_xlfn.STDEV.S(E12:E16)/SQRT(5)</f>
+      <c r="P16">
+        <f t="shared" ref="P16" si="17">_xlfn.STDEV.S(E12:E16)/SQRT(5)</f>
         <v>0.10907625660173036</v>
       </c>
-      <c r="P16">
-        <f t="shared" ref="P16" si="19">_xlfn.STDEV.S(F12:F16)/SQRT(5)</f>
-        <v>0.26315707144861478</v>
-      </c>
       <c r="Q16">
-        <f t="shared" ref="Q16" si="20">_xlfn.STDEV.S(G12:G16)/SQRT(5)</f>
+        <f>_xlfn.STDEV.S(F12:F16)/SQRT(5)</f>
+        <v>1.0353477761447716</v>
+      </c>
+      <c r="R16">
+        <f t="shared" ref="R16" si="18">_xlfn.STDEV.S(H12:H16)/SQRT(5)</f>
         <v>3.0308191760918025E-2</v>
       </c>
-      <c r="S16">
-        <f t="shared" ref="S16" si="21">_xlfn.STDEV.S(I12:I16)/SQRT(5)</f>
+      <c r="T16">
+        <f t="shared" ref="T16" si="19">_xlfn.STDEV.S(J12:J16)/SQRT(5)</f>
         <v>2504103.3578680712</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1098,22 +1223,29 @@
         <v>1.3440474999999998</v>
       </c>
       <c r="F17">
-        <v>3.6306134640522871</v>
-      </c>
-      <c r="G17" s="1">
+        <v>3.7385719575699121</v>
+      </c>
+      <c r="G17">
+        <v>3.6306134640000001</v>
+      </c>
+      <c r="H17" s="1">
         <v>1.7324117239512224</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>11</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>24256296.296296299</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>0.57871367210912528</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="11"/>
+        <v>0.44588246265618847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1130,22 +1262,29 @@
         <v>1.5531579166666665</v>
       </c>
       <c r="F18">
-        <v>4.0318555676973205</v>
-      </c>
-      <c r="G18" s="1">
+        <v>5.0121441317776245</v>
+      </c>
+      <c r="G18">
+        <v>4.0318555680000001</v>
+      </c>
+      <c r="H18" s="1">
         <v>1.5073957630075219</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>11</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>22691481.481481485</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.64267098772653442</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="11"/>
+        <v>0.59777561968271387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1162,22 +1301,29 @@
         <v>1.1826383333333332</v>
       </c>
       <c r="F19">
-        <v>3.7022563348416244</v>
-      </c>
-      <c r="G19" s="1">
+        <v>1.6670569867291158</v>
+      </c>
+      <c r="G19">
+        <v>3.702256335</v>
+      </c>
+      <c r="H19" s="1">
         <v>1.491482138037397</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>11</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>24074814.814814817</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.59013342506422528</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="11"/>
+        <v>0.19882229981582025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1194,46 +1340,61 @@
         <v>1.1176291666666667</v>
       </c>
       <c r="F20">
-        <v>3.2441221406147736</v>
-      </c>
-      <c r="G20" s="1">
+        <v>10.480415422885532</v>
+      </c>
+      <c r="G20">
+        <v>3.2441221410000001</v>
+      </c>
+      <c r="H20" s="1">
         <v>1.5371371161898999</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>11</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>23170740.740740746</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.51710760601604311</v>
       </c>
-      <c r="M20">
+      <c r="L20">
+        <f t="shared" si="11"/>
+        <v>1.2499514497652178</v>
+      </c>
+      <c r="N20">
         <f>AVERAGE(C17:C21)</f>
         <v>2.1625799999999997</v>
       </c>
-      <c r="N20">
-        <f t="shared" ref="N20" si="22">AVERAGE(D17:D21)</f>
+      <c r="O20">
+        <f t="shared" ref="O20" si="20">AVERAGE(D17:D21)</f>
         <v>0.26519999999999999</v>
       </c>
-      <c r="O20">
-        <f t="shared" ref="O20" si="23">AVERAGE(E17:E21)</f>
+      <c r="P20">
+        <f t="shared" ref="P20" si="21">AVERAGE(E17:E21)</f>
         <v>1.0934663333333332</v>
       </c>
-      <c r="P20">
-        <f t="shared" ref="P20" si="24">AVERAGE(F17:F21)</f>
-        <v>3.7101279552994235</v>
-      </c>
       <c r="Q20">
-        <f t="shared" ref="Q20" si="25">AVERAGE(G17:G21)</f>
+        <f>AVERAGE(F17:F21)</f>
+        <v>4.9833110638163065</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ref="R20" si="22">AVERAGE(H17:H21)</f>
         <v>1.5718803329558839</v>
       </c>
-      <c r="S20">
-        <f t="shared" ref="S20" si="26">AVERAGE(I17:I21)</f>
+      <c r="T20">
+        <f t="shared" ref="T20" si="23">AVERAGE(J17:J21)</f>
         <v>24160666.666666668</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <f>R10/R20</f>
+        <v>0.72537746318262564</v>
+      </c>
+      <c r="W20">
+        <f>1/V20</f>
+        <v>1.378592595932683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1250,148 +1411,155 @@
         <v>0.26985874999999998</v>
       </c>
       <c r="F21">
-        <v>3.941792269291112</v>
-      </c>
-      <c r="G21" s="1">
+        <v>4.0183668201193488</v>
+      </c>
+      <c r="G21">
+        <v>3.941792269</v>
+      </c>
+      <c r="H21" s="1">
         <v>1.590974923593379</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>11</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>26610000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.62831504962985185</v>
       </c>
-      <c r="M21">
+      <c r="L21">
+        <f t="shared" si="11"/>
+        <v>0.47925232252995276</v>
+      </c>
+      <c r="N21">
         <f>_xlfn.STDEV.S(C17:C21)/SQRT(5)</f>
         <v>6.0055086899445914E-2</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <f>_xlfn.STDEV.S(D17:D21)/SQRT(5)</f>
         <v>8.0414550922081295E-3</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <f>_xlfn.STDEV.S(E17:E21)/SQRT(5)</f>
         <v>0.21919993297197923</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <f>_xlfn.STDEV.S(F17:F21)/SQRT(5)</f>
-        <v>0.13797154543660767</v>
-      </c>
-      <c r="Q21">
-        <f>_xlfn.STDEV.S(G17:G21)/SQRT(5)</f>
+        <v>1.4781241764507866</v>
+      </c>
+      <c r="R21">
+        <f>_xlfn.STDEV.S(H17:H21)/SQRT(5)</f>
         <v>4.3568424062235787E-2</v>
       </c>
-      <c r="S21">
-        <f t="shared" ref="S21" si="27">_xlfn.STDEV.S(I17:I21)/SQRT(5)</f>
+      <c r="T21">
+        <f t="shared" ref="T21" si="24">_xlfn.STDEV.S(J17:J21)/SQRT(5)</f>
         <v>676542.96949621674</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D24">
-        <f>_xlfn.T.TEST(G2:G6,G12:G16,2,1)</f>
+        <f>_xlfn.T.TEST(H2:H6,H12:H16,2,1)</f>
         <v>0.12915639128375025</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G28">
-        <f>_xlfn.T.TEST(G2:G6,G17:G21,2,2)</f>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f>_xlfn.T.TEST(H2:H6,H17:H21,2,2)</f>
         <v>1.6905713523320921E-2</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>17</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <f>0.2485745/(0.017*(SQRT(2/5)))</f>
         <v>23.119458477574259</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G29">
-        <f>_xlfn.T.TEST(F17:F21,F12:F16,2,2)</f>
-        <v>2.0459040705852173E-2</v>
-      </c>
-      <c r="I29" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="H29" t="e">
+        <f>_xlfn.T.TEST(#REF!,#REF!,2,2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I30" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I31" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="1">
+      <c r="T31" s="1">
         <v>1.3667798499930193</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S32" s="1">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T32" s="1">
         <v>1.3025902012680448</v>
       </c>
     </row>
-    <row r="33" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="S33" s="1">
+    <row r="33" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="T33" s="1">
         <v>1.1282155505965332</v>
       </c>
-      <c r="U33">
-        <f>_xlfn.STDEV.S(S31:S40)/SQRT(COUNT(S31:S40))</f>
+      <c r="V33">
+        <f>_xlfn.STDEV.S(T31:T40)/SQRT(COUNT(T31:T40))</f>
         <v>5.6881711171400583E-2</v>
       </c>
     </row>
-    <row r="34" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="S34" s="1">
+    <row r="34" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="T34" s="1">
         <v>1.2619391950116217</v>
       </c>
     </row>
-    <row r="35" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="S35" s="1">
+    <row r="35" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="T35" s="1">
         <v>1.5570045688620748</v>
       </c>
-      <c r="U35">
-        <f>_xlfn.STDEV.S(S31:S40)</f>
+      <c r="V35">
+        <f>_xlfn.STDEV.S(T31:T40)</f>
         <v>0.17987576450947021</v>
       </c>
     </row>
-    <row r="36" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="M36">
-        <f>0.2485745/U33</f>
+    <row r="36" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <f>0.2485745/V33</f>
         <v>4.3700250024296068</v>
       </c>
-      <c r="S36" s="1">
+      <c r="T36" s="1">
         <v>1.7324117239512224</v>
       </c>
     </row>
-    <row r="37" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="S37" s="1">
+    <row r="37" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="T37" s="1">
         <v>1.5073957630075219</v>
       </c>
     </row>
-    <row r="38" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="S38" s="1">
+    <row r="38" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="T38" s="1">
         <v>1.491482138037397</v>
       </c>
     </row>
-    <row r="39" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="S39" s="1">
+    <row r="39" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="T39" s="1">
         <v>1.5371371161898999</v>
       </c>
     </row>
-    <row r="40" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="S40" s="1">
+    <row r="40" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="T40" s="1">
         <v>1.590974923593379</v>
       </c>
     </row>
-    <row r="42" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L42">
+    <row r="42" spans="13:22" x14ac:dyDescent="0.25">
+      <c r="M42">
         <f>SQRT(10)</f>
         <v>3.1622776601683795</v>
       </c>
